--- a/converter/data/xlsx/19.9. A SMJENA.XLSX
+++ b/converter/data/xlsx/19.9. A SMJENA.XLSX
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\RASPORED-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="599"/>
   </bookViews>
@@ -445,8 +440,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="41" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2570,7 +2565,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="610">
+  <cellXfs count="611">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3879,9 +3874,6 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3899,9 +3891,6 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="123" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3977,6 +3966,189 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="127" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3989,196 +4161,22 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="118" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="121" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="116" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
     <cellStyle name="Normalno 2" xfId="2"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
     <cellStyle name="Obično 2" xfId="1"/>
     <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
@@ -4229,7 +4227,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4280,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4335,7 +4333,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4388,7 +4386,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4439,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4494,7 +4492,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4545,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4600,7 +4598,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4653,7 +4651,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4706,7 +4704,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4759,7 +4757,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4812,7 +4810,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5458,11 +5456,105 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Ravni poveznik sa strelicom 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17180719" y="5845969"/>
+          <a:ext cx="428625" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>23814</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Ravni poveznik sa strelicom 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="17835564" y="5857876"/>
+          <a:ext cx="440531" cy="130969"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5504,7 +5596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5536,10 +5628,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5571,7 +5662,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5747,14 +5837,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -5795,107 +5885,107 @@
     <col min="39" max="40" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="559" t="s">
+    <row r="1" spans="1:43" ht="27" thickBot="1">
+      <c r="A1" s="586" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="559"/>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="559"/>
-      <c r="G1" s="559"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="559"/>
-      <c r="L1" s="559"/>
-      <c r="M1" s="559"/>
-      <c r="N1" s="559"/>
-      <c r="O1" s="559"/>
-      <c r="P1" s="559"/>
-      <c r="Q1" s="559"/>
-      <c r="R1" s="559"/>
-      <c r="S1" s="559"/>
-      <c r="T1" s="559"/>
-      <c r="U1" s="559"/>
-      <c r="V1" s="559"/>
-      <c r="W1" s="559"/>
-      <c r="X1" s="559"/>
-      <c r="Y1" s="559"/>
-      <c r="Z1" s="559"/>
-      <c r="AA1" s="559"/>
-      <c r="AB1" s="559"/>
-      <c r="AC1" s="559"/>
-      <c r="AD1" s="559"/>
-      <c r="AE1" s="559"/>
-      <c r="AF1" s="559"/>
-      <c r="AG1" s="559"/>
-      <c r="AH1" s="559"/>
-      <c r="AI1" s="559"/>
-      <c r="AJ1" s="559"/>
-      <c r="AK1" s="559"/>
-      <c r="AL1" s="559"/>
-      <c r="AM1" s="559"/>
-      <c r="AN1" s="507"/>
+      <c r="B1" s="586"/>
+      <c r="C1" s="586"/>
+      <c r="D1" s="586"/>
+      <c r="E1" s="586"/>
+      <c r="F1" s="586"/>
+      <c r="G1" s="586"/>
+      <c r="H1" s="586"/>
+      <c r="I1" s="586"/>
+      <c r="J1" s="586"/>
+      <c r="K1" s="586"/>
+      <c r="L1" s="586"/>
+      <c r="M1" s="586"/>
+      <c r="N1" s="586"/>
+      <c r="O1" s="586"/>
+      <c r="P1" s="586"/>
+      <c r="Q1" s="586"/>
+      <c r="R1" s="586"/>
+      <c r="S1" s="586"/>
+      <c r="T1" s="586"/>
+      <c r="U1" s="586"/>
+      <c r="V1" s="586"/>
+      <c r="W1" s="586"/>
+      <c r="X1" s="586"/>
+      <c r="Y1" s="586"/>
+      <c r="Z1" s="586"/>
+      <c r="AA1" s="586"/>
+      <c r="AB1" s="586"/>
+      <c r="AC1" s="586"/>
+      <c r="AD1" s="586"/>
+      <c r="AE1" s="586"/>
+      <c r="AF1" s="586"/>
+      <c r="AG1" s="586"/>
+      <c r="AH1" s="586"/>
+      <c r="AI1" s="586"/>
+      <c r="AJ1" s="586"/>
+      <c r="AK1" s="586"/>
+      <c r="AL1" s="586"/>
+      <c r="AM1" s="586"/>
+      <c r="AN1" s="506"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="18">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="560" t="s">
+      <c r="B2" s="587" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="561"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="561"/>
-      <c r="F2" s="561"/>
-      <c r="G2" s="561"/>
-      <c r="H2" s="562"/>
-      <c r="I2" s="563" t="s">
+      <c r="C2" s="588"/>
+      <c r="D2" s="588"/>
+      <c r="E2" s="588"/>
+      <c r="F2" s="588"/>
+      <c r="G2" s="588"/>
+      <c r="H2" s="589"/>
+      <c r="I2" s="590" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="561"/>
-      <c r="K2" s="561"/>
-      <c r="L2" s="561"/>
-      <c r="M2" s="561"/>
-      <c r="N2" s="561"/>
-      <c r="O2" s="564"/>
+      <c r="J2" s="588"/>
+      <c r="K2" s="588"/>
+      <c r="L2" s="588"/>
+      <c r="M2" s="588"/>
+      <c r="N2" s="588"/>
+      <c r="O2" s="591"/>
       <c r="P2" s="337"/>
-      <c r="Q2" s="565" t="s">
+      <c r="Q2" s="592" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="561"/>
-      <c r="S2" s="561"/>
-      <c r="T2" s="561"/>
-      <c r="U2" s="561"/>
-      <c r="V2" s="561"/>
-      <c r="W2" s="564"/>
+      <c r="R2" s="588"/>
+      <c r="S2" s="588"/>
+      <c r="T2" s="588"/>
+      <c r="U2" s="588"/>
+      <c r="V2" s="588"/>
+      <c r="W2" s="591"/>
       <c r="X2" s="337"/>
-      <c r="Y2" s="563" t="s">
+      <c r="Y2" s="590" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="561"/>
-      <c r="AA2" s="561"/>
-      <c r="AB2" s="561"/>
-      <c r="AC2" s="561"/>
-      <c r="AD2" s="561"/>
-      <c r="AE2" s="564"/>
+      <c r="Z2" s="588"/>
+      <c r="AA2" s="588"/>
+      <c r="AB2" s="588"/>
+      <c r="AC2" s="588"/>
+      <c r="AD2" s="588"/>
+      <c r="AE2" s="591"/>
       <c r="AF2" s="337"/>
-      <c r="AG2" s="560" t="s">
+      <c r="AG2" s="587" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="566"/>
-      <c r="AI2" s="566"/>
-      <c r="AJ2" s="566"/>
-      <c r="AK2" s="566"/>
-      <c r="AL2" s="566"/>
-      <c r="AM2" s="567"/>
+      <c r="AH2" s="593"/>
+      <c r="AI2" s="593"/>
+      <c r="AJ2" s="593"/>
+      <c r="AK2" s="593"/>
+      <c r="AL2" s="593"/>
+      <c r="AM2" s="594"/>
       <c r="AN2" s="422"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="16.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6013,12 +6103,12 @@
       <c r="AM3" s="4">
         <v>7</v>
       </c>
-      <c r="AN3" s="514">
+      <c r="AN3" s="513">
         <v>8</v>
       </c>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="18.75" thickTop="1">
       <c r="A4" s="38" t="s">
         <v>77</v>
       </c>
@@ -6098,10 +6188,10 @@
       <c r="AK4" s="60"/>
       <c r="AL4" s="59"/>
       <c r="AM4" s="60"/>
-      <c r="AN4" s="519"/>
+      <c r="AN4" s="517"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="18" customHeight="1">
       <c r="A5" s="166" t="s">
         <v>52</v>
       </c>
@@ -6184,7 +6274,7 @@
       <c r="AN5" s="378"/>
       <c r="AO5" s="25"/>
     </row>
-    <row r="6" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="165" t="s">
         <v>68</v>
       </c>
@@ -6247,7 +6337,7 @@
       <c r="AN6" s="388"/>
       <c r="AO6" s="25"/>
     </row>
-    <row r="7" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="17.25" customHeight="1">
       <c r="A7" s="167" t="s">
         <v>69</v>
       </c>
@@ -6300,7 +6390,7 @@
       <c r="AN7" s="382"/>
       <c r="AO7" s="25"/>
     </row>
-    <row r="8" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="17.25" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>78</v>
       </c>
@@ -6382,10 +6472,10 @@
       <c r="AM8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AN8" s="523"/>
+      <c r="AN8" s="521"/>
       <c r="AO8" s="18"/>
     </row>
-    <row r="9" spans="1:43" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="20.25" customHeight="1">
       <c r="A9" s="169" t="s">
         <v>56</v>
       </c>
@@ -6403,10 +6493,10 @@
       <c r="M9" s="45">
         <v>27</v>
       </c>
-      <c r="N9" s="548" t="s">
+      <c r="N9" s="578" t="s">
         <v>119</v>
       </c>
-      <c r="O9" s="549"/>
+      <c r="O9" s="579"/>
       <c r="P9" s="353"/>
       <c r="Q9" s="469" t="s">
         <v>98</v>
@@ -6468,7 +6558,7 @@
       <c r="AN9" s="381"/>
       <c r="AO9" s="145"/>
     </row>
-    <row r="10" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="18.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>76</v>
       </c>
@@ -6486,10 +6576,10 @@
         <v>85</v>
       </c>
       <c r="M10" s="45"/>
-      <c r="N10" s="568" t="s">
+      <c r="N10" s="580" t="s">
         <v>119</v>
       </c>
-      <c r="O10" s="569"/>
+      <c r="O10" s="581"/>
       <c r="P10" s="137" t="s">
         <v>85</v>
       </c>
@@ -6548,12 +6638,12 @@
         <v>98</v>
       </c>
       <c r="AM10" s="45"/>
-      <c r="AN10" s="515" t="s">
+      <c r="AN10" s="514" t="s">
         <v>88</v>
       </c>
       <c r="AO10" s="18"/>
     </row>
-    <row r="11" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="18.75" customHeight="1">
       <c r="A11" s="246" t="s">
         <v>73</v>
       </c>
@@ -6609,10 +6699,10 @@
       <c r="AM11" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="AN11" s="520"/>
+      <c r="AN11" s="518"/>
       <c r="AO11" s="18"/>
     </row>
-    <row r="12" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="247" t="s">
         <v>6</v>
       </c>
@@ -6623,10 +6713,10 @@
       <c r="F12" s="449" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="582" t="s">
+      <c r="G12" s="567" t="s">
         <v>122</v>
       </c>
-      <c r="H12" s="583"/>
+      <c r="H12" s="568"/>
       <c r="I12" s="83"/>
       <c r="J12" s="66"/>
       <c r="K12" s="187"/>
@@ -6678,10 +6768,10 @@
       <c r="AK12" s="229"/>
       <c r="AL12" s="230"/>
       <c r="AM12" s="239"/>
-      <c r="AN12" s="521"/>
+      <c r="AN12" s="519"/>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="18.75" customHeight="1">
       <c r="A13" s="167" t="s">
         <v>7</v>
       </c>
@@ -6743,10 +6833,10 @@
       <c r="AM13" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AN13" s="522"/>
+      <c r="AN13" s="520"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="18.75" customHeight="1">
       <c r="A14" s="167" t="s">
         <v>71</v>
       </c>
@@ -6804,10 +6894,10 @@
       <c r="AK14" s="45"/>
       <c r="AL14" s="45"/>
       <c r="AM14" s="45"/>
-      <c r="AN14" s="523"/>
+      <c r="AN14" s="521"/>
       <c r="AO14" s="1"/>
     </row>
-    <row r="15" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="18.75" customHeight="1">
       <c r="A15" s="167" t="s">
         <v>60</v>
       </c>
@@ -6841,8 +6931,8 @@
       <c r="AA15" s="45"/>
       <c r="AB15" s="45"/>
       <c r="AC15" s="45"/>
-      <c r="AD15" s="548"/>
-      <c r="AE15" s="549"/>
+      <c r="AD15" s="578"/>
+      <c r="AE15" s="579"/>
       <c r="AF15" s="359"/>
       <c r="AG15" s="315"/>
       <c r="AH15" s="45"/>
@@ -6851,10 +6941,10 @@
       <c r="AK15" s="45"/>
       <c r="AL15" s="45"/>
       <c r="AM15" s="45"/>
-      <c r="AN15" s="524"/>
+      <c r="AN15" s="522"/>
       <c r="AO15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="23.25" customHeight="1">
       <c r="A16" s="167" t="s">
         <v>8</v>
       </c>
@@ -6916,12 +7006,12 @@
       <c r="AK16" s="45"/>
       <c r="AL16" s="45"/>
       <c r="AM16" s="49"/>
-      <c r="AN16" s="523"/>
+      <c r="AN16" s="521"/>
       <c r="AO16" s="18"/>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="18.75" customHeight="1">
       <c r="A17" s="169" t="s">
         <v>9</v>
       </c>
@@ -6979,12 +7069,12 @@
       <c r="AK17" s="45"/>
       <c r="AL17" s="45"/>
       <c r="AM17" s="49"/>
-      <c r="AN17" s="524"/>
+      <c r="AN17" s="522"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="17.25" customHeight="1">
       <c r="A18" s="169" t="s">
         <v>10</v>
       </c>
@@ -7038,12 +7128,12 @@
       <c r="AK18" s="45"/>
       <c r="AL18" s="45"/>
       <c r="AM18" s="49"/>
-      <c r="AN18" s="523"/>
+      <c r="AN18" s="521"/>
       <c r="AO18" s="18"/>
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="17.25" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>43</v>
       </c>
@@ -7089,12 +7179,12 @@
       <c r="AK19" s="45"/>
       <c r="AL19" s="45"/>
       <c r="AM19" s="45"/>
-      <c r="AN19" s="524"/>
+      <c r="AN19" s="522"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="17.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>102</v>
       </c>
@@ -7144,12 +7234,12 @@
       <c r="AK20" s="45"/>
       <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
-      <c r="AN20" s="523"/>
+      <c r="AN20" s="521"/>
       <c r="AO20" s="18"/>
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="16.5" customHeight="1">
       <c r="A21" s="169" t="s">
         <v>63</v>
       </c>
@@ -7213,12 +7303,12 @@
       <c r="AM21" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="AN21" s="523"/>
+      <c r="AN21" s="521"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="1:43" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="18.75" customHeight="1" thickBot="1">
       <c r="A22" s="168" t="s">
         <v>66</v>
       </c>
@@ -7284,12 +7374,12 @@
       <c r="AM22" s="239" t="s">
         <v>99</v>
       </c>
-      <c r="AN22" s="521"/>
+      <c r="AN22" s="519"/>
       <c r="AO22" s="18"/>
       <c r="AP22" s="18"/>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="19.5" customHeight="1">
       <c r="A23" s="168" t="s">
         <v>58</v>
       </c>
@@ -7365,12 +7455,12 @@
       <c r="AK23" s="64"/>
       <c r="AL23" s="64"/>
       <c r="AM23" s="49"/>
-      <c r="AN23" s="525"/>
+      <c r="AN23" s="523"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="18"/>
     </row>
-    <row r="24" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="19.5" customHeight="1">
       <c r="A24" s="168" t="s">
         <v>70</v>
       </c>
@@ -7418,12 +7508,12 @@
       <c r="AK24" s="64"/>
       <c r="AL24" s="64"/>
       <c r="AM24" s="64"/>
-      <c r="AN24" s="523"/>
+      <c r="AN24" s="521"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="18"/>
     </row>
-    <row r="25" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="17.25" customHeight="1">
       <c r="A25" s="168" t="s">
         <v>11</v>
       </c>
@@ -7480,15 +7570,17 @@
       <c r="AH25" s="49"/>
       <c r="AI25" s="49"/>
       <c r="AJ25" s="64"/>
-      <c r="AK25" s="64"/>
+      <c r="AK25" s="64">
+        <v>15</v>
+      </c>
       <c r="AL25" s="64"/>
       <c r="AM25" s="64"/>
-      <c r="AN25" s="524"/>
+      <c r="AN25" s="522"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="18"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="17.25" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>118</v>
       </c>
@@ -7562,24 +7654,24 @@
         <v>90</v>
       </c>
       <c r="AI26" s="54"/>
-      <c r="AJ26" s="435" t="s">
+      <c r="AJ26" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="AK26" s="435" t="s">
+      <c r="AK26" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="AL26" s="435" t="s">
+      <c r="AL26" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="AM26" s="516" t="s">
+      <c r="AM26" s="231" t="s">
         <v>90</v>
       </c>
-      <c r="AN26" s="527"/>
+      <c r="AN26" s="525"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="18"/>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="17.25" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>55</v>
       </c>
@@ -7647,12 +7739,12 @@
       </c>
       <c r="AL27" s="231"/>
       <c r="AM27" s="231"/>
-      <c r="AN27" s="521"/>
+      <c r="AN27" s="519"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="18"/>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="1:43" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="18.75" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>50</v>
       </c>
@@ -7718,24 +7810,24 @@
       <c r="AK28" s="66"/>
       <c r="AL28" s="66"/>
       <c r="AM28" s="66"/>
-      <c r="AN28" s="526"/>
+      <c r="AN28" s="524"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="18">
       <c r="A29" s="481" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="584" t="s">
+      <c r="B29" s="575" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="585"/>
-      <c r="D29" s="585"/>
-      <c r="E29" s="585"/>
-      <c r="F29" s="585"/>
-      <c r="G29" s="585"/>
-      <c r="H29" s="586"/>
+      <c r="C29" s="576"/>
+      <c r="D29" s="576"/>
+      <c r="E29" s="576"/>
+      <c r="F29" s="576"/>
+      <c r="G29" s="576"/>
+      <c r="H29" s="577"/>
       <c r="I29" s="111"/>
       <c r="J29" s="64"/>
       <c r="K29" s="62"/>
@@ -7767,12 +7859,12 @@
       <c r="AK29" s="64"/>
       <c r="AL29" s="79"/>
       <c r="AM29" s="186"/>
-      <c r="AN29" s="522"/>
-      <c r="AO29" s="509"/>
+      <c r="AN29" s="520"/>
+      <c r="AO29" s="508"/>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="16.5" customHeight="1">
       <c r="A30" s="167" t="s">
         <v>123</v>
       </c>
@@ -7826,12 +7918,12 @@
       <c r="AM30" s="208" t="s">
         <v>85</v>
       </c>
-      <c r="AN30" s="527"/>
-      <c r="AO30" s="510"/>
+      <c r="AN30" s="525"/>
+      <c r="AO30" s="509"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="16.5" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>59</v>
       </c>
@@ -7883,12 +7975,12 @@
       <c r="AK31" s="54"/>
       <c r="AL31" s="79"/>
       <c r="AM31" s="64"/>
-      <c r="AN31" s="524"/>
-      <c r="AO31" s="510"/>
+      <c r="AN31" s="522"/>
+      <c r="AO31" s="509"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="16.5" customHeight="1">
       <c r="A32" s="169" t="s">
         <v>79</v>
       </c>
@@ -7938,12 +8030,12 @@
       <c r="AM32" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AN32" s="523"/>
-      <c r="AO32" s="510"/>
+      <c r="AN32" s="521"/>
+      <c r="AO32" s="509"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" ht="16.5" customHeight="1">
       <c r="A33" s="169" t="s">
         <v>75</v>
       </c>
@@ -8013,12 +8105,12 @@
       <c r="AK33" s="54"/>
       <c r="AL33" s="54"/>
       <c r="AM33" s="54"/>
-      <c r="AN33" s="528"/>
-      <c r="AO33" s="510"/>
+      <c r="AN33" s="526"/>
+      <c r="AO33" s="509"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" ht="19.5" customHeight="1" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>67</v>
       </c>
@@ -8104,12 +8196,12 @@
       <c r="AM34" s="239" t="s">
         <v>85</v>
       </c>
-      <c r="AN34" s="529"/>
-      <c r="AO34" s="510"/>
+      <c r="AN34" s="527"/>
+      <c r="AO34" s="509"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" ht="18">
       <c r="A35" s="248" t="s">
         <v>13</v>
       </c>
@@ -8159,11 +8251,11 @@
       <c r="AK35" s="62"/>
       <c r="AL35" s="62"/>
       <c r="AM35" s="70"/>
-      <c r="AN35" s="522"/>
+      <c r="AN35" s="520"/>
       <c r="AO35" s="100"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="18" customHeight="1">
       <c r="A36" s="169" t="s">
         <v>14</v>
       </c>
@@ -8215,11 +8307,11 @@
       <c r="AK36" s="49"/>
       <c r="AL36" s="49"/>
       <c r="AM36" s="49"/>
-      <c r="AN36" s="523"/>
+      <c r="AN36" s="521"/>
       <c r="AO36" s="101"/>
       <c r="AP36" s="102"/>
     </row>
-    <row r="37" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" ht="18">
       <c r="A37" s="168" t="s">
         <v>15</v>
       </c>
@@ -8252,10 +8344,10 @@
       <c r="N37" s="64"/>
       <c r="O37" s="64"/>
       <c r="P37" s="367"/>
-      <c r="Q37" s="604" t="s">
+      <c r="Q37" s="549" t="s">
         <v>86</v>
       </c>
-      <c r="R37" s="605" t="s">
+      <c r="R37" s="550" t="s">
         <v>86</v>
       </c>
       <c r="S37" s="64" t="s">
@@ -8274,10 +8366,10 @@
       <c r="AD37" s="49"/>
       <c r="AE37" s="49"/>
       <c r="AF37" s="359"/>
-      <c r="AG37" s="602" t="s">
+      <c r="AG37" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="AH37" s="603" t="s">
+      <c r="AH37" s="548" t="s">
         <v>5</v>
       </c>
       <c r="AI37" s="64" t="s">
@@ -8289,11 +8381,11 @@
       </c>
       <c r="AL37" s="49"/>
       <c r="AM37" s="49"/>
-      <c r="AN37" s="524"/>
-      <c r="AO37" s="511"/>
+      <c r="AN37" s="522"/>
+      <c r="AO37" s="510"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" ht="18">
       <c r="A38" s="168" t="s">
         <v>16</v>
       </c>
@@ -8318,10 +8410,10 @@
       <c r="R38" s="428" t="s">
         <v>86</v>
       </c>
-      <c r="S38" s="606" t="s">
+      <c r="S38" s="551" t="s">
         <v>85</v>
       </c>
-      <c r="T38" s="606" t="s">
+      <c r="T38" s="551" t="s">
         <v>85</v>
       </c>
       <c r="U38" s="64" t="s">
@@ -8355,11 +8447,11 @@
       <c r="AM38" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AN38" s="530"/>
+      <c r="AN38" s="528"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" ht="15.75" customHeight="1">
       <c r="A39" s="168" t="s">
         <v>17</v>
       </c>
@@ -8397,23 +8489,23 @@
       <c r="AG39" s="316"/>
       <c r="AH39" s="231"/>
       <c r="AI39" s="54"/>
-      <c r="AJ39" s="110" t="s">
+      <c r="AJ39" s="608" t="s">
         <v>88</v>
       </c>
-      <c r="AK39" s="506" t="s">
+      <c r="AK39" s="609" t="s">
         <v>88</v>
       </c>
-      <c r="AL39" s="49" t="s">
+      <c r="AL39" s="610" t="s">
         <v>88</v>
       </c>
-      <c r="AM39" s="49" t="s">
+      <c r="AM39" s="610" t="s">
         <v>88</v>
       </c>
-      <c r="AN39" s="531"/>
+      <c r="AN39" s="529"/>
       <c r="AO39" s="18"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="247" t="s">
         <v>18</v>
       </c>
@@ -8451,23 +8543,23 @@
       <c r="AG40" s="243"/>
       <c r="AH40" s="239"/>
       <c r="AI40" s="66"/>
-      <c r="AJ40" s="607" t="s">
+      <c r="AJ40" s="552" t="s">
         <v>88</v>
       </c>
-      <c r="AK40" s="607" t="s">
+      <c r="AK40" s="552" t="s">
         <v>88</v>
       </c>
-      <c r="AL40" s="607" t="s">
+      <c r="AL40" s="552" t="s">
         <v>88</v>
       </c>
-      <c r="AM40" s="608" t="s">
+      <c r="AM40" s="553" t="s">
         <v>88</v>
       </c>
-      <c r="AN40" s="529"/>
+      <c r="AN40" s="527"/>
       <c r="AO40" s="18"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" ht="16.5" customHeight="1">
       <c r="A41" s="248" t="s">
         <v>45</v>
       </c>
@@ -8483,10 +8575,10 @@
       <c r="K41" s="62"/>
       <c r="L41" s="64"/>
       <c r="M41" s="64"/>
-      <c r="N41" s="609" t="s">
+      <c r="N41" s="554" t="s">
         <v>5</v>
       </c>
-      <c r="O41" s="609" t="s">
+      <c r="O41" s="554" t="s">
         <v>5</v>
       </c>
       <c r="P41" s="364"/>
@@ -8515,11 +8607,11 @@
       <c r="AK41" s="53"/>
       <c r="AL41" s="53"/>
       <c r="AM41" s="45"/>
-      <c r="AN41" s="522"/>
+      <c r="AN41" s="520"/>
       <c r="AO41" s="18"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" ht="18" customHeight="1">
       <c r="A42" s="168" t="s">
         <v>80</v>
       </c>
@@ -8605,11 +8697,11 @@
       <c r="AM42" s="289" t="s">
         <v>99</v>
       </c>
-      <c r="AN42" s="523"/>
+      <c r="AN42" s="521"/>
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" ht="18" customHeight="1">
       <c r="A43" s="168" t="s">
         <v>81</v>
       </c>
@@ -8645,23 +8737,23 @@
       <c r="Q43" s="79"/>
       <c r="R43" s="64"/>
       <c r="S43" s="64"/>
-      <c r="T43" s="597" t="s">
+      <c r="T43" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="U43" s="597" t="s">
+      <c r="U43" s="542" t="s">
         <v>86</v>
       </c>
-      <c r="V43" s="597" t="s">
+      <c r="V43" s="542" t="s">
         <v>5</v>
       </c>
-      <c r="W43" s="597" t="s">
+      <c r="W43" s="542" t="s">
         <v>5</v>
       </c>
       <c r="X43" s="393"/>
-      <c r="Y43" s="598" t="s">
+      <c r="Y43" s="543" t="s">
         <v>5</v>
       </c>
-      <c r="Z43" s="599" t="s">
+      <c r="Z43" s="544" t="s">
         <v>5</v>
       </c>
       <c r="AA43" s="64" t="s">
@@ -8674,10 +8766,10 @@
       <c r="AD43" s="62"/>
       <c r="AE43" s="111"/>
       <c r="AF43" s="354"/>
-      <c r="AG43" s="600" t="s">
+      <c r="AG43" s="545" t="s">
         <v>5</v>
       </c>
-      <c r="AH43" s="601" t="s">
+      <c r="AH43" s="546" t="s">
         <v>5</v>
       </c>
       <c r="AI43" s="49"/>
@@ -8689,47 +8781,47 @@
       </c>
       <c r="AL43" s="176"/>
       <c r="AM43" s="176"/>
-      <c r="AN43" s="532"/>
-      <c r="AO43" s="512" t="s">
+      <c r="AN43" s="530"/>
+      <c r="AO43" s="511" t="s">
         <v>72</v>
       </c>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" ht="17.25" customHeight="1">
       <c r="A44" s="168" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="61"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
-      <c r="E44" s="553" t="s">
+      <c r="E44" s="584" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="579"/>
-      <c r="G44" s="550"/>
-      <c r="H44" s="551"/>
+      <c r="F44" s="585"/>
+      <c r="G44" s="595"/>
+      <c r="H44" s="596"/>
       <c r="I44" s="55"/>
       <c r="J44" s="99"/>
       <c r="K44" s="49"/>
       <c r="L44" s="183"/>
       <c r="M44" s="205"/>
-      <c r="N44" s="555" t="s">
+      <c r="N44" s="599" t="s">
         <v>105</v>
       </c>
-      <c r="O44" s="556"/>
+      <c r="O44" s="600"/>
       <c r="P44" s="361"/>
       <c r="Q44" s="315"/>
       <c r="R44" s="49"/>
       <c r="S44" s="49"/>
-      <c r="T44" s="557"/>
-      <c r="U44" s="558"/>
-      <c r="V44" s="553" t="s">
+      <c r="T44" s="601"/>
+      <c r="U44" s="602"/>
+      <c r="V44" s="584" t="s">
         <v>93</v>
       </c>
-      <c r="W44" s="554"/>
+      <c r="W44" s="598"/>
       <c r="X44" s="394"/>
-      <c r="Y44" s="552"/>
-      <c r="Z44" s="549"/>
+      <c r="Y44" s="597"/>
+      <c r="Z44" s="579"/>
       <c r="AA44" s="49"/>
       <c r="AB44" s="296" t="s">
         <v>99</v>
@@ -8737,10 +8829,10 @@
       <c r="AC44" s="297" t="s">
         <v>99</v>
       </c>
-      <c r="AD44" s="555" t="s">
+      <c r="AD44" s="599" t="s">
         <v>105</v>
       </c>
-      <c r="AE44" s="556"/>
+      <c r="AE44" s="600"/>
       <c r="AF44" s="407"/>
       <c r="AG44" s="331"/>
       <c r="AH44" s="266"/>
@@ -8755,15 +8847,15 @@
         <v>99</v>
       </c>
       <c r="AM44" s="204"/>
-      <c r="AN44" s="533"/>
-      <c r="AO44" s="513" t="s">
+      <c r="AN44" s="531"/>
+      <c r="AO44" s="512" t="s">
         <v>20</v>
       </c>
       <c r="AP44" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" ht="17.25" customHeight="1">
       <c r="A45" s="168" t="s">
         <v>48</v>
       </c>
@@ -8828,14 +8920,14 @@
       <c r="AL45" s="306" t="s">
         <v>90</v>
       </c>
-      <c r="AM45" s="517" t="s">
+      <c r="AM45" s="515" t="s">
         <v>90</v>
       </c>
-      <c r="AN45" s="531"/>
+      <c r="AN45" s="529"/>
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
     </row>
-    <row r="46" spans="1:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="247" t="s">
         <v>47</v>
       </c>
@@ -8897,11 +8989,11 @@
       <c r="AK46" s="83"/>
       <c r="AL46" s="112"/>
       <c r="AM46" s="112"/>
-      <c r="AN46" s="534"/>
+      <c r="AN46" s="532"/>
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
     </row>
-    <row r="47" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" ht="16.5" customHeight="1">
       <c r="A47" s="249" t="s">
         <v>83</v>
       </c>
@@ -8951,11 +9043,11 @@
       <c r="AK47" s="302"/>
       <c r="AL47" s="300"/>
       <c r="AM47" s="300"/>
-      <c r="AN47" s="535"/>
+      <c r="AN47" s="533"/>
       <c r="AO47" s="20"/>
       <c r="AP47" s="20"/>
     </row>
-    <row r="48" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" ht="18">
       <c r="A48" s="169" t="s">
         <v>82</v>
       </c>
@@ -8967,19 +9059,19 @@
       <c r="E48" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="594" t="s">
+      <c r="F48" s="563" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="590"/>
-      <c r="H48" s="595"/>
+      <c r="G48" s="558"/>
+      <c r="H48" s="564"/>
       <c r="I48" s="182"/>
       <c r="J48" s="182"/>
-      <c r="K48" s="576" t="s">
+      <c r="K48" s="572" t="s">
         <v>121</v>
       </c>
-      <c r="L48" s="577"/>
-      <c r="M48" s="577"/>
-      <c r="N48" s="578"/>
+      <c r="L48" s="573"/>
+      <c r="M48" s="573"/>
+      <c r="N48" s="574"/>
       <c r="O48" s="45" t="s">
         <v>99</v>
       </c>
@@ -8988,11 +9080,11 @@
       <c r="R48" s="502" t="s">
         <v>90</v>
       </c>
-      <c r="S48" s="576" t="s">
+      <c r="S48" s="572" t="s">
         <v>121</v>
       </c>
-      <c r="T48" s="577"/>
-      <c r="U48" s="578"/>
+      <c r="T48" s="573"/>
+      <c r="U48" s="574"/>
       <c r="V48" s="45"/>
       <c r="W48" s="182"/>
       <c r="X48" s="397"/>
@@ -9005,34 +9097,34 @@
       <c r="AA48" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AB48" s="587" t="s">
+      <c r="AB48" s="555" t="s">
         <v>121</v>
       </c>
-      <c r="AC48" s="588"/>
+      <c r="AC48" s="556"/>
       <c r="AD48" s="45"/>
       <c r="AE48" s="49"/>
       <c r="AF48" s="352"/>
-      <c r="AG48" s="589" t="s">
+      <c r="AG48" s="557" t="s">
         <v>126</v>
       </c>
-      <c r="AH48" s="590"/>
-      <c r="AI48" s="590"/>
-      <c r="AJ48" s="590"/>
-      <c r="AK48" s="590"/>
-      <c r="AL48" s="590"/>
-      <c r="AM48" s="591"/>
-      <c r="AN48" s="530"/>
+      <c r="AH48" s="558"/>
+      <c r="AI48" s="558"/>
+      <c r="AJ48" s="558"/>
+      <c r="AK48" s="558"/>
+      <c r="AL48" s="558"/>
+      <c r="AM48" s="559"/>
+      <c r="AN48" s="528"/>
       <c r="AO48" s="20"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="18.75" customHeight="1">
       <c r="A49" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="580" t="s">
+      <c r="B49" s="565" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="581"/>
+      <c r="C49" s="566"/>
       <c r="D49" s="227" t="s">
         <v>40</v>
       </c>
@@ -9099,7 +9191,7 @@
       <c r="AK49" s="208"/>
       <c r="AL49" s="208"/>
       <c r="AM49" s="208"/>
-      <c r="AN49" s="527"/>
+      <c r="AN49" s="525"/>
       <c r="AO49" s="23" t="s">
         <v>22</v>
       </c>
@@ -9107,7 +9199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>23</v>
       </c>
@@ -9119,32 +9211,32 @@
       <c r="E50" s="444" t="s">
         <v>41</v>
       </c>
-      <c r="F50" s="570" t="s">
+      <c r="F50" s="582" t="s">
         <v>120</v>
       </c>
-      <c r="G50" s="571"/>
-      <c r="H50" s="572"/>
+      <c r="G50" s="561"/>
+      <c r="H50" s="583"/>
       <c r="I50" s="257"/>
       <c r="J50" s="187"/>
-      <c r="K50" s="573" t="s">
+      <c r="K50" s="569" t="s">
         <v>120</v>
       </c>
-      <c r="L50" s="574"/>
-      <c r="M50" s="574"/>
-      <c r="N50" s="575"/>
+      <c r="L50" s="570"/>
+      <c r="M50" s="570"/>
+      <c r="N50" s="571"/>
       <c r="O50" s="239" t="s">
         <v>91</v>
       </c>
       <c r="P50" s="370"/>
       <c r="Q50" s="83"/>
       <c r="R50" s="66"/>
-      <c r="S50" s="573" t="s">
+      <c r="S50" s="569" t="s">
         <v>120</v>
       </c>
-      <c r="T50" s="574"/>
-      <c r="U50" s="574"/>
-      <c r="V50" s="574"/>
-      <c r="W50" s="575"/>
+      <c r="T50" s="570"/>
+      <c r="U50" s="570"/>
+      <c r="V50" s="570"/>
+      <c r="W50" s="571"/>
       <c r="X50" s="398"/>
       <c r="Y50" s="225" t="s">
         <v>40</v>
@@ -9164,16 +9256,16 @@
       <c r="AD50" s="209"/>
       <c r="AE50" s="209"/>
       <c r="AF50" s="408"/>
-      <c r="AG50" s="592" t="s">
+      <c r="AG50" s="560" t="s">
         <v>127</v>
       </c>
-      <c r="AH50" s="571"/>
-      <c r="AI50" s="571"/>
-      <c r="AJ50" s="571"/>
-      <c r="AK50" s="571"/>
-      <c r="AL50" s="571"/>
-      <c r="AM50" s="593"/>
-      <c r="AN50" s="526"/>
+      <c r="AH50" s="561"/>
+      <c r="AI50" s="561"/>
+      <c r="AJ50" s="561"/>
+      <c r="AK50" s="561"/>
+      <c r="AL50" s="561"/>
+      <c r="AM50" s="562"/>
+      <c r="AN50" s="524"/>
       <c r="AO50" s="24" t="s">
         <v>24</v>
       </c>
@@ -9181,7 +9273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="14" t="s">
         <v>25</v>
       </c>
@@ -9263,11 +9355,11 @@
       <c r="AK51" s="122"/>
       <c r="AL51" s="104"/>
       <c r="AM51" s="62"/>
-      <c r="AN51" s="525"/>
+      <c r="AN51" s="523"/>
       <c r="AO51" s="18"/>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="17.25" customHeight="1">
       <c r="A52" s="169" t="s">
         <v>26</v>
       </c>
@@ -9343,13 +9435,13 @@
       <c r="AK52" s="304"/>
       <c r="AL52" s="78"/>
       <c r="AM52" s="304"/>
-      <c r="AN52" s="523"/>
+      <c r="AN52" s="521"/>
       <c r="AO52" s="345" t="s">
         <v>27</v>
       </c>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="21" t="s">
         <v>44</v>
       </c>
@@ -9425,7 +9517,7 @@
       <c r="AK53" s="303"/>
       <c r="AL53" s="149"/>
       <c r="AM53" s="303"/>
-      <c r="AN53" s="536"/>
+      <c r="AN53" s="534"/>
       <c r="AO53" s="346" t="s">
         <v>54</v>
       </c>
@@ -9433,7 +9525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>84</v>
       </c>
@@ -9513,13 +9605,13 @@
       <c r="AK54" s="121"/>
       <c r="AL54" s="45"/>
       <c r="AM54" s="70"/>
-      <c r="AN54" s="524"/>
+      <c r="AN54" s="522"/>
       <c r="AO54" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="15.75" customHeight="1">
       <c r="A55" s="167" t="s">
         <v>97</v>
       </c>
@@ -9561,11 +9653,11 @@
       <c r="AK55" s="121"/>
       <c r="AL55" s="62"/>
       <c r="AM55" s="62"/>
-      <c r="AN55" s="530"/>
+      <c r="AN55" s="528"/>
       <c r="AO55" s="22"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="17.25" customHeight="1" thickBot="1">
       <c r="A56" s="169" t="s">
         <v>57</v>
       </c>
@@ -9649,10 +9741,10 @@
       <c r="AK56" s="164"/>
       <c r="AL56" s="66"/>
       <c r="AM56" s="66"/>
-      <c r="AN56" s="526"/>
+      <c r="AN56" s="524"/>
       <c r="AP56" s="1"/>
     </row>
-    <row r="57" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="17.25" customHeight="1">
       <c r="A57" s="250" t="s">
         <v>51</v>
       </c>
@@ -9724,13 +9816,13 @@
       <c r="AK57" s="128"/>
       <c r="AL57" s="128"/>
       <c r="AM57" s="45"/>
-      <c r="AN57" s="525"/>
+      <c r="AN57" s="523"/>
       <c r="AO57" s="24" t="s">
         <v>29</v>
       </c>
       <c r="AP57" s="40"/>
     </row>
-    <row r="58" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="16.5" customHeight="1">
       <c r="A58" s="15" t="s">
         <v>30</v>
       </c>
@@ -9804,10 +9896,10 @@
       <c r="AC58" s="262" t="s">
         <v>41</v>
       </c>
-      <c r="AD58" s="594" t="s">
+      <c r="AD58" s="563" t="s">
         <v>128</v>
       </c>
-      <c r="AE58" s="591"/>
+      <c r="AE58" s="559"/>
       <c r="AF58" s="411"/>
       <c r="AG58" s="315" t="s">
         <v>41</v>
@@ -9830,7 +9922,7 @@
       <c r="AM58" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AN58" s="524"/>
+      <c r="AN58" s="522"/>
       <c r="AO58" s="347" t="s">
         <v>62</v>
       </c>
@@ -9838,7 +9930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="16.5" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>31</v>
       </c>
@@ -9929,16 +10021,16 @@
       <c r="AL59" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AM59" s="518" t="s">
+      <c r="AM59" s="516" t="s">
         <v>46</v>
       </c>
-      <c r="AN59" s="537"/>
-      <c r="AO59" s="542" t="s">
+      <c r="AN59" s="535"/>
+      <c r="AO59" s="540" t="s">
         <v>28</v>
       </c>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="17.25" customHeight="1">
       <c r="A60" s="116" t="s">
         <v>107</v>
       </c>
@@ -9996,11 +10088,11 @@
       <c r="AK60" s="214"/>
       <c r="AL60" s="133"/>
       <c r="AM60" s="133"/>
-      <c r="AN60" s="538"/>
-      <c r="AO60" s="543"/>
+      <c r="AN60" s="536"/>
+      <c r="AO60" s="541"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="19.5" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>74</v>
       </c>
@@ -10082,13 +10174,13 @@
       <c r="AK61" s="172"/>
       <c r="AL61" s="132"/>
       <c r="AM61" s="133"/>
-      <c r="AN61" s="538"/>
+      <c r="AN61" s="536"/>
       <c r="AO61" s="118" t="s">
         <v>64</v>
       </c>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="18.75" customHeight="1">
       <c r="A62" s="115" t="s">
         <v>42</v>
       </c>
@@ -10172,7 +10264,7 @@
       <c r="AM62" s="326" t="s">
         <v>46</v>
       </c>
-      <c r="AN62" s="539"/>
+      <c r="AN62" s="537"/>
       <c r="AO62" s="347" t="s">
         <v>65</v>
       </c>
@@ -10180,7 +10272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="18.75" customHeight="1">
       <c r="A63" s="170" t="s">
         <v>108</v>
       </c>
@@ -10248,11 +10340,11 @@
       <c r="AM63" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="AN63" s="540"/>
-      <c r="AO63" s="510"/>
+      <c r="AN63" s="538"/>
+      <c r="AO63" s="509"/>
       <c r="AP63" s="117"/>
     </row>
-    <row r="64" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" ht="18" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>32</v>
       </c>
@@ -10326,13 +10418,13 @@
       <c r="AM64" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AN64" s="530"/>
+      <c r="AN64" s="528"/>
       <c r="AO64" s="346" t="s">
         <v>96</v>
       </c>
       <c r="AP64" s="18"/>
     </row>
-    <row r="65" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="18.75" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>33</v>
       </c>
@@ -10406,11 +10498,11 @@
       <c r="AM65" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="AN65" s="523"/>
+      <c r="AN65" s="521"/>
       <c r="AO65" s="345"/>
       <c r="AP65" s="20"/>
     </row>
-    <row r="66" spans="1:42" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="20.25" customHeight="1" thickBot="1">
       <c r="A66" s="298" t="s">
         <v>49</v>
       </c>
@@ -10484,11 +10576,11 @@
       <c r="AM66" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="AN66" s="541"/>
+      <c r="AN66" s="539"/>
       <c r="AO66" s="146"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="10.5" customHeight="1" thickBot="1">
       <c r="A67" s="1"/>
       <c r="B67" s="162"/>
       <c r="C67" s="162"/>
@@ -10532,63 +10624,63 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="546" t="s">
+      <c r="B68" s="605" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="544"/>
-      <c r="D68" s="544"/>
-      <c r="E68" s="544"/>
-      <c r="F68" s="544"/>
-      <c r="G68" s="544"/>
-      <c r="H68" s="544"/>
-      <c r="I68" s="547" t="s">
+      <c r="C68" s="603"/>
+      <c r="D68" s="603"/>
+      <c r="E68" s="603"/>
+      <c r="F68" s="603"/>
+      <c r="G68" s="603"/>
+      <c r="H68" s="603"/>
+      <c r="I68" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="J68" s="544"/>
-      <c r="K68" s="544"/>
-      <c r="L68" s="544"/>
-      <c r="M68" s="544"/>
-      <c r="N68" s="544"/>
-      <c r="O68" s="544"/>
+      <c r="J68" s="603"/>
+      <c r="K68" s="603"/>
+      <c r="L68" s="603"/>
+      <c r="M68" s="603"/>
+      <c r="N68" s="603"/>
+      <c r="O68" s="603"/>
       <c r="P68" s="329"/>
-      <c r="Q68" s="544" t="s">
+      <c r="Q68" s="603" t="s">
         <v>80</v>
       </c>
-      <c r="R68" s="544"/>
-      <c r="S68" s="544"/>
-      <c r="T68" s="544"/>
-      <c r="U68" s="544"/>
-      <c r="V68" s="544"/>
-      <c r="W68" s="544"/>
+      <c r="R68" s="603"/>
+      <c r="S68" s="603"/>
+      <c r="T68" s="603"/>
+      <c r="U68" s="603"/>
+      <c r="V68" s="603"/>
+      <c r="W68" s="603"/>
       <c r="X68" s="329"/>
-      <c r="Y68" s="544" t="s">
+      <c r="Y68" s="603" t="s">
         <v>84</v>
       </c>
-      <c r="Z68" s="544"/>
-      <c r="AA68" s="544"/>
-      <c r="AB68" s="544"/>
-      <c r="AC68" s="544"/>
-      <c r="AD68" s="544"/>
-      <c r="AE68" s="544"/>
+      <c r="Z68" s="603"/>
+      <c r="AA68" s="603"/>
+      <c r="AB68" s="603"/>
+      <c r="AC68" s="603"/>
+      <c r="AD68" s="603"/>
+      <c r="AE68" s="603"/>
       <c r="AF68" s="329"/>
-      <c r="AG68" s="544" t="s">
+      <c r="AG68" s="603" t="s">
         <v>82</v>
       </c>
-      <c r="AH68" s="544"/>
-      <c r="AI68" s="544"/>
-      <c r="AJ68" s="544"/>
-      <c r="AK68" s="544"/>
-      <c r="AL68" s="544"/>
-      <c r="AM68" s="545"/>
-      <c r="AN68" s="508"/>
+      <c r="AH68" s="603"/>
+      <c r="AI68" s="603"/>
+      <c r="AJ68" s="603"/>
+      <c r="AK68" s="603"/>
+      <c r="AL68" s="603"/>
+      <c r="AM68" s="604"/>
+      <c r="AN68" s="507"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -10632,283 +10724,266 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="82" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:19">
       <c r="Q82" s="42"/>
     </row>
-    <row r="83" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:19">
       <c r="Q83" s="42"/>
     </row>
-    <row r="84" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:19">
       <c r="Q84" s="42"/>
     </row>
-    <row r="88" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:19">
       <c r="Q88" s="42"/>
     </row>
-    <row r="89" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:19">
       <c r="Q89" s="42"/>
     </row>
-    <row r="90" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:19">
       <c r="Q90" s="42"/>
       <c r="R90" s="42"/>
     </row>
-    <row r="91" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:19">
       <c r="Q91" s="42"/>
     </row>
-    <row r="92" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:19">
       <c r="R92" s="42"/>
     </row>
-    <row r="94" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:19">
       <c r="S94" s="42"/>
     </row>
-    <row r="95" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:19">
       <c r="R95" s="42"/>
     </row>
-    <row r="96" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:19">
       <c r="Q96" s="42"/>
       <c r="R96" s="42"/>
     </row>
-    <row r="97" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:20">
       <c r="R97" s="42"/>
     </row>
-    <row r="98" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:20">
       <c r="R98" s="42"/>
     </row>
-    <row r="104" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="18:20">
       <c r="T104" s="42"/>
     </row>
-    <row r="105" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="18:20">
       <c r="S105" s="42"/>
     </row>
-    <row r="106" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="18:20">
       <c r="S106" s="42"/>
     </row>
-    <row r="107" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="18:20">
       <c r="S107" s="42"/>
     </row>
-    <row r="108" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="18:20">
       <c r="S108" s="42"/>
     </row>
-    <row r="109" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="18:20">
       <c r="S109" s="42"/>
     </row>
-    <row r="110" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="18:20">
       <c r="R110" s="42"/>
       <c r="S110" s="42"/>
     </row>
-    <row r="111" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="18:20">
       <c r="R111" s="42"/>
       <c r="S111" s="42"/>
     </row>
-    <row r="112" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="18:20">
       <c r="S112" s="42"/>
     </row>
-    <row r="113" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:20">
       <c r="S113" s="42"/>
     </row>
-    <row r="114" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:20">
       <c r="S114" s="42"/>
     </row>
-    <row r="115" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:20">
       <c r="S115" s="42"/>
     </row>
-    <row r="116" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:20">
       <c r="T116" s="42"/>
     </row>
-    <row r="117" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:20">
       <c r="S117" s="42"/>
       <c r="T117" s="42"/>
     </row>
-    <row r="118" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:20">
       <c r="S118" s="42"/>
     </row>
-    <row r="120" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:20">
       <c r="S120" s="42"/>
     </row>
-    <row r="122" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:20">
       <c r="Q122" s="42"/>
       <c r="R122" s="42"/>
     </row>
-    <row r="123" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:20">
       <c r="R123" s="42"/>
     </row>
-    <row r="124" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:20">
       <c r="R124" s="42"/>
     </row>
-    <row r="125" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:20">
       <c r="R125" s="42"/>
       <c r="S125" s="42"/>
     </row>
-    <row r="126" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:20">
       <c r="O126" s="42"/>
       <c r="P126" s="42"/>
       <c r="R126" s="42"/>
     </row>
-    <row r="127" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:20">
       <c r="O127" s="42"/>
       <c r="P127" s="42"/>
       <c r="R127" s="42"/>
       <c r="S127" s="42"/>
     </row>
-    <row r="128" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:20">
       <c r="Q128" s="42"/>
       <c r="R128" s="42"/>
       <c r="S128" s="42"/>
     </row>
-    <row r="129" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:24">
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
       <c r="R129" s="42"/>
       <c r="S129" s="42"/>
     </row>
-    <row r="130" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:24">
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
       <c r="R130" s="42"/>
       <c r="S130" s="42"/>
     </row>
-    <row r="131" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:24">
       <c r="O131" s="42"/>
       <c r="P131" s="42"/>
       <c r="R131" s="42"/>
       <c r="S131" s="42"/>
     </row>
-    <row r="132" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:24">
       <c r="Q132" s="42"/>
       <c r="R132" s="42"/>
       <c r="S132" s="42"/>
       <c r="W132" s="42"/>
       <c r="X132" s="42"/>
     </row>
-    <row r="133" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:24">
       <c r="Q133" s="42"/>
       <c r="R133" s="42"/>
     </row>
-    <row r="134" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:24">
       <c r="Q134" s="42"/>
       <c r="R134" s="42"/>
     </row>
-    <row r="135" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:24">
       <c r="Q135" s="42"/>
       <c r="R135" s="42"/>
       <c r="T135" s="42"/>
     </row>
-    <row r="136" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:24">
       <c r="Q136" s="42"/>
       <c r="R136" s="42"/>
       <c r="S136" s="42"/>
       <c r="T136" s="42"/>
     </row>
-    <row r="137" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:24">
       <c r="O137" s="42"/>
       <c r="P137" s="42"/>
       <c r="R137" s="42"/>
     </row>
-    <row r="138" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:24">
       <c r="Q138" s="42"/>
       <c r="R138" s="42"/>
     </row>
-    <row r="139" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:24">
       <c r="Q139" s="42"/>
       <c r="R139" s="42"/>
       <c r="S139" s="42"/>
       <c r="U139" s="42"/>
     </row>
-    <row r="140" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:24">
       <c r="R140" s="42"/>
       <c r="S140" s="42"/>
     </row>
-    <row r="141" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:24">
       <c r="R141" s="42"/>
     </row>
-    <row r="142" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:24">
       <c r="R142" s="42"/>
       <c r="U142" s="42"/>
     </row>
-    <row r="143" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:24">
       <c r="Q143" s="42"/>
       <c r="R143" s="42"/>
       <c r="S143" s="42"/>
     </row>
-    <row r="144" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:24">
       <c r="S144" s="42"/>
     </row>
-    <row r="145" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="19:26">
       <c r="S145" s="42"/>
     </row>
-    <row r="146" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="19:26">
       <c r="S146" s="42"/>
       <c r="V146" s="42"/>
     </row>
-    <row r="147" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="19:26">
       <c r="S147" s="42"/>
       <c r="W147" s="42"/>
       <c r="X147" s="42"/>
       <c r="Y147" s="42"/>
       <c r="Z147" s="42"/>
     </row>
-    <row r="148" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="19:26">
       <c r="S148" s="42"/>
       <c r="W148" s="42"/>
       <c r="X148" s="42"/>
       <c r="Y148" s="42"/>
       <c r="Z148" s="42"/>
     </row>
-    <row r="149" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="19:26">
       <c r="W149" s="42"/>
       <c r="X149" s="42"/>
     </row>
-    <row r="150" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="19:26">
       <c r="S150" s="42"/>
       <c r="W150" s="42"/>
       <c r="X150" s="42"/>
     </row>
-    <row r="151" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="19:26">
       <c r="S151" s="42"/>
       <c r="W151" s="42"/>
       <c r="X151" s="42"/>
     </row>
-    <row r="152" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="19:26">
       <c r="S152" s="42"/>
     </row>
-    <row r="153" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="19:26">
       <c r="S153" s="42"/>
     </row>
-    <row r="154" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="19:26">
       <c r="S154" s="42"/>
     </row>
-    <row r="155" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="19:26">
       <c r="S155" s="42"/>
     </row>
-    <row r="156" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="19:26">
       <c r="S156" s="42"/>
     </row>
-    <row r="157" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="19:26">
       <c r="S157" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AG48:AM48"/>
-    <mergeCell ref="AG50:AM50"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="S50:W50"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AG68:AM68"/>
+    <mergeCell ref="Y68:AE68"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="I68:O68"/>
+    <mergeCell ref="Q68:W68"/>
     <mergeCell ref="AD15:AE15"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="Y44:Z44"/>
@@ -10916,11 +10991,28 @@
     <mergeCell ref="AD44:AE44"/>
     <mergeCell ref="T44:U44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="AG68:AM68"/>
-    <mergeCell ref="Y68:AE68"/>
-    <mergeCell ref="B68:H68"/>
-    <mergeCell ref="I68:O68"/>
-    <mergeCell ref="Q68:W68"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="S50:W50"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AG48:AM48"/>
+    <mergeCell ref="AG50:AM50"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="AD58:AE58"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10930,33 +11022,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="596" t="s">
+    <row r="1" spans="2:6" ht="18.75">
+      <c r="B1" s="607" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="596"/>
-      <c r="D1" s="596"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="607"/>
+      <c r="D1" s="607"/>
+    </row>
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="26"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="48"/>
       <c r="C3" s="27" t="s">
         <v>36</v>
@@ -10965,12 +11057,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="307"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="308"/>
       <c r="C5" s="27" t="s">
         <v>36</v>
@@ -10979,12 +11071,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="309"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="44"/>
       <c r="C7" s="27" t="s">
         <v>36</v>
@@ -10993,12 +11085,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="309"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="43"/>
       <c r="C9" s="310" t="s">
         <v>36</v>
@@ -11007,12 +11099,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="309"/>
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="29"/>
       <c r="C11" s="27" t="s">
         <v>36</v>
@@ -11021,12 +11113,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="311"/>
       <c r="C12" s="312"/>
       <c r="D12" s="28"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="445"/>
       <c r="C13" s="27" t="s">
         <v>36</v>
@@ -11035,13 +11127,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
       <c r="B14" s="313"/>
       <c r="C14" s="27"/>
       <c r="D14" s="41"/>
       <c r="F14" s="42"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="30"/>
       <c r="C15" s="27" t="s">
         <v>36</v>
@@ -11050,12 +11142,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="309"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1">
       <c r="B17" s="31"/>
       <c r="C17" s="27" t="s">
         <v>36</v>
@@ -11064,12 +11156,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1">
       <c r="B18" s="309"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1">
       <c r="B19" s="32"/>
       <c r="C19" s="27" t="s">
         <v>36</v>
@@ -11078,12 +11170,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1">
       <c r="B20" s="309"/>
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1">
       <c r="B21" s="50"/>
       <c r="C21" s="27" t="s">
         <v>36</v>
@@ -11092,12 +11184,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1">
       <c r="B22" s="309"/>
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1">
       <c r="B23" s="33"/>
       <c r="C23" s="27" t="s">
         <v>36</v>
@@ -11106,12 +11198,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="18.75" thickBot="1">
       <c r="B24" s="309"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18.75" thickBot="1">
       <c r="B25" s="34"/>
       <c r="C25" s="27" t="s">
         <v>36</v>
@@ -11120,12 +11212,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1">
       <c r="B26" s="309"/>
       <c r="C26" s="309"/>
       <c r="D26" s="28"/>
     </row>
-    <row r="27" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" ht="21" thickBot="1">
       <c r="B27" s="35"/>
       <c r="C27" s="27" t="s">
         <v>36</v>
@@ -11134,12 +11226,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15.75" thickBot="1">
       <c r="B28" s="309"/>
       <c r="C28" s="309"/>
       <c r="D28" s="309"/>
     </row>
-    <row r="29" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="18.75" thickBot="1">
       <c r="B29" s="47"/>
       <c r="C29" s="27" t="s">
         <v>36</v>
@@ -11148,12 +11240,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1">
       <c r="B30" s="309"/>
       <c r="C30" s="309"/>
       <c r="D30" s="28"/>
     </row>
-    <row r="31" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="18.75" thickBot="1">
       <c r="B31" s="36"/>
       <c r="C31" s="27" t="s">
         <v>36</v>
@@ -11162,12 +11254,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1">
       <c r="B32" s="309"/>
       <c r="C32" s="309"/>
       <c r="D32" s="309"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="18.75" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="27" t="s">
         <v>36</v>
@@ -11176,12 +11268,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="309"/>
       <c r="C34" s="309"/>
       <c r="D34" s="309"/>
     </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="18.75" thickBot="1">
       <c r="B35" s="314"/>
       <c r="C35" s="27" t="s">
         <v>36</v>
